--- a/pvalue_results_2.xlsx
+++ b/pvalue_results_2.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="52">
   <si>
     <t>Language</t>
   </si>
@@ -185,6 +185,9 @@
   </si>
   <si>
     <t>China</t>
+  </si>
+  <si>
+    <t>Brazil</t>
   </si>
 </sst>
 </file>
@@ -1177,7 +1180,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -1500,10 +1503,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C25"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -1905,7 +1908,7 @@
       </c>
       <c r="D21" s="1">
         <f>1-VLOOKUP(B21,Sheet1!A:E,5,FALSE)</f>
-        <v>7.06581216808333e-5</v>
+        <v>7.06581216810553e-5</v>
       </c>
       <c r="E21" t="s">
         <v>46</v>
@@ -1924,7 +1927,7 @@
       </c>
       <c r="D22" s="1">
         <f>1-VLOOKUP(B22,Sheet1!A:E,5,FALSE)</f>
-        <v>5.07977225803202e-5</v>
+        <v>5.07977225799872e-5</v>
       </c>
       <c r="E22" t="s">
         <v>46</v>
@@ -1943,7 +1946,7 @@
       </c>
       <c r="D23" s="1">
         <f>1-VLOOKUP(B23,Sheet1!A:E,5,FALSE)</f>
-        <v>5.07977225803202e-5</v>
+        <v>5.07977225799872e-5</v>
       </c>
       <c r="E23" t="s">
         <v>46</v>
@@ -1962,7 +1965,7 @@
       </c>
       <c r="D24" s="1">
         <f>1-VLOOKUP(B24,Sheet1!A:E,5,FALSE)</f>
-        <v>1.20988774554576e-11</v>
+        <v>1.209898847776e-11</v>
       </c>
       <c r="E24" t="s">
         <v>46</v>
@@ -1981,10 +1984,29 @@
       </c>
       <c r="D25" s="1">
         <f>1-VLOOKUP(B25,Sheet1!A:E,5,FALSE)</f>
-        <v>3.60822483003176e-14</v>
+        <v>3.59712259978551e-14</v>
       </c>
       <c r="E25" t="s">
         <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" s="1">
+        <f>VLOOKUP(B26,Sheet1!A:B,2,FALSE)*100</f>
+        <v>90.6116700201207</v>
+      </c>
+      <c r="D26" s="1">
+        <f>1-VLOOKUP(B26,Sheet1!A:E,5,FALSE)</f>
+        <v>0.999999999999934</v>
+      </c>
+      <c r="E26" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
